--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5b</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5b</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.674198</v>
       </c>
       <c r="I2">
-        <v>0.3705194872285258</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3705194872285258</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N2">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q2">
-        <v>0.04678612003177778</v>
+        <v>0.04070882434888889</v>
       </c>
       <c r="R2">
-        <v>0.421075080286</v>
+        <v>0.3663794191400001</v>
       </c>
       <c r="S2">
-        <v>0.004713306808407579</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="T2">
-        <v>0.004713306808407577</v>
+        <v>0.01112617495564619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.674198</v>
       </c>
       <c r="I3">
-        <v>0.3705194872285258</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3705194872285258</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q3">
-        <v>3.017110511423556</v>
+        <v>3.017110511423555</v>
       </c>
       <c r="R3">
-        <v>27.153994602812</v>
+        <v>27.15399460281199</v>
       </c>
       <c r="S3">
-        <v>0.3039484254208708</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="T3">
-        <v>0.3039484254208707</v>
+        <v>0.8246098959508241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.674198</v>
       </c>
       <c r="I4">
-        <v>0.3705194872285258</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3705194872285258</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N4">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q4">
-        <v>0.6030482370204444</v>
+        <v>0.5975908289431111</v>
       </c>
       <c r="R4">
-        <v>5.427434133184</v>
+        <v>5.378317460488</v>
       </c>
       <c r="S4">
-        <v>0.06075202131350246</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="T4">
-        <v>0.06075202131350244</v>
+        <v>0.1633282272592126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>0.674198</v>
       </c>
       <c r="I5">
-        <v>0.3705194872285258</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.3705194872285258</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,276 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N5">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q5">
-        <v>0.01097594344</v>
+        <v>0.003423577444</v>
       </c>
       <c r="R5">
-        <v>0.09878349096</v>
+        <v>0.030812196996</v>
       </c>
       <c r="S5">
-        <v>0.001105733685745062</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="T5">
-        <v>0.001105733685745061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.3818013333333333</v>
-      </c>
-      <c r="H6">
-        <v>1.145404</v>
-      </c>
-      <c r="I6">
-        <v>0.6294805127714742</v>
-      </c>
-      <c r="J6">
-        <v>0.6294805127714742</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.2081856666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.624557</v>
-      </c>
-      <c r="O6">
-        <v>0.0127208067884984</v>
-      </c>
-      <c r="P6">
-        <v>0.0127208067884984</v>
-      </c>
-      <c r="Q6">
-        <v>0.07948556511422222</v>
-      </c>
-      <c r="R6">
-        <v>0.7153700860279999</v>
-      </c>
-      <c r="S6">
-        <v>0.008007499980090826</v>
-      </c>
-      <c r="T6">
-        <v>0.008007499980090822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.3818013333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.145404</v>
-      </c>
-      <c r="I7">
-        <v>0.6294805127714742</v>
-      </c>
-      <c r="J7">
-        <v>0.6294805127714742</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>13.42533133333333</v>
-      </c>
-      <c r="N7">
-        <v>40.275994</v>
-      </c>
-      <c r="O7">
-        <v>0.8203304708596989</v>
-      </c>
-      <c r="P7">
-        <v>0.8203304708596987</v>
-      </c>
-      <c r="Q7">
-        <v>5.125809403508444</v>
-      </c>
-      <c r="R7">
-        <v>46.132284631576</v>
-      </c>
-      <c r="S7">
-        <v>0.5163820454388282</v>
-      </c>
-      <c r="T7">
-        <v>0.516382045438828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.3818013333333333</v>
-      </c>
-      <c r="H8">
-        <v>1.145404</v>
-      </c>
-      <c r="I8">
-        <v>0.6294805127714742</v>
-      </c>
-      <c r="J8">
-        <v>0.6294805127714742</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.683402666666666</v>
-      </c>
-      <c r="N8">
-        <v>8.050208</v>
-      </c>
-      <c r="O8">
-        <v>0.1639644429174985</v>
-      </c>
-      <c r="P8">
-        <v>0.1639644429174985</v>
-      </c>
-      <c r="Q8">
-        <v>1.024526716003555</v>
-      </c>
-      <c r="R8">
-        <v>9.220740444031998</v>
-      </c>
-      <c r="S8">
-        <v>0.1032124216039961</v>
-      </c>
-      <c r="T8">
-        <v>0.1032124216039961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.3818013333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.145404</v>
-      </c>
-      <c r="I9">
-        <v>0.6294805127714742</v>
-      </c>
-      <c r="J9">
-        <v>0.6294805127714742</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.04884</v>
-      </c>
-      <c r="N9">
-        <v>0.14652</v>
-      </c>
-      <c r="O9">
-        <v>0.002984279434304292</v>
-      </c>
-      <c r="P9">
-        <v>0.002984279434304292</v>
-      </c>
-      <c r="Q9">
-        <v>0.01864717712</v>
-      </c>
-      <c r="R9">
-        <v>0.16782459408</v>
-      </c>
-      <c r="S9">
-        <v>0.001878545748559231</v>
-      </c>
-      <c r="T9">
-        <v>0.001878545748559231</v>
+        <v>0.0009357018343171013</v>
       </c>
     </row>
   </sheetData>
